--- a/medicine/Pharmacie/Aminoptérine/Aminoptérine.xlsx
+++ b/medicine/Pharmacie/Aminoptérine/Aminoptérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aminopt%C3%A9rine</t>
+          <t>Aminoptérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’aminoptérine est un médicament antagoniste de l'acide folique prescrit comme antinéoplasique qui inhibe les mitoses. Cette molécule fait partie de la liste EPA des substances extrêmement dangereuses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aminopt%C3%A9rine</t>
+          <t>Aminoptérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce médicament contient du méthotrexate, un agent antifolique de la classe des antimétabolites, utilisé dans le traitement de certains cancers et dans les maladies autoimmunes et inflammatoires. Il inhibe la dihydrofolate réductase, une enzyme capitale dans le métabolisme de l'acide folique.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aminopt%C3%A9rine</t>
+          <t>Aminoptérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'aminoptérine est indiqué dans les pathologies suivantes[réf. souhaitée] :
 Embryofoetopathie à l'aminoptérine/méthotrexate (EAM).
